--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3731,7 +3731,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4751,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4870,7 +4870,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5584,7 +5584,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5822,7 +5822,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5839,7 +5839,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5890,7 +5890,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6995,7 +6995,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7097,7 +7097,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7471,7 +7471,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7522,7 +7522,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7675,7 +7675,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7709,7 +7709,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7760,7 +7760,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7794,7 +7794,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7879,7 +7879,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8083,7 +8083,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8100,7 +8100,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8117,7 +8117,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8321,7 +8321,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8678,7 +8678,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9137,7 +9137,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9239,7 +9239,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9290,7 +9290,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9341,7 +9341,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9358,7 +9358,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9443,7 +9443,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9528,7 +9528,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -5125,7 +5125,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7930,7 +7930,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9001,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3777,12 +3777,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3964,12 +3964,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4372,12 +4372,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -4712,12 +4712,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -4853,7 +4853,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -4899,12 +4899,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5035,12 +5035,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5108,7 +5108,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5205,12 +5205,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5409,12 +5409,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5426,12 +5426,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5460,12 +5460,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5477,12 +5477,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5494,12 +5494,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5562,12 +5562,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5907,7 +5907,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -5970,12 +5970,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6004,7 +6004,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6094,7 +6094,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6140,12 +6140,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6310,12 +6310,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6582,12 +6582,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6888,12 +6888,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7211,12 +7211,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7398,12 +7398,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7568,12 +7568,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7590,7 +7590,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7891,12 +7891,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8078,12 +8078,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8265,12 +8265,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8384,12 +8384,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8423,7 +8423,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8537,12 +8537,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8724,12 +8724,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8746,7 +8746,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8911,12 +8911,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9268,12 +9268,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9319,7 +9319,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9421,12 +9421,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9438,12 +9438,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9455,12 +9455,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9472,12 +9472,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9489,12 +9489,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9506,12 +9506,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -9523,12 +9523,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -875,7 +875,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -7403,7 +7403,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8542,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -8899,7 +8899,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9902,7 +9902,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9936,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -569,7 +569,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7539,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8185,7 +8185,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8304,7 +8304,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8780,7 +8780,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
@@ -8797,7 +8797,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8814,7 +8814,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9205,7 +9205,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -10174,7 +10174,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -10327,7 +10327,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C589"/>
+  <dimension ref="A1:C581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,7 +559,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>road107</t>
+          <t>road108</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>road108</t>
+          <t>road109</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -593,7 +593,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>road109</t>
+          <t>road110</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,14 +603,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>road110</t>
+          <t>road111</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>road111</t>
+          <t>road112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -644,7 +644,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>road112</t>
+          <t>road113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -661,7 +661,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>road113</t>
+          <t>road114</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>road114</t>
+          <t>road115</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -688,14 +688,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>road115</t>
+          <t>road116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>road116</t>
+          <t>road117</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -722,14 +722,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>road117</t>
+          <t>road118</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -739,14 +739,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>road118</t>
+          <t>road119</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -763,7 +763,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>road119</t>
+          <t>road120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>road120</t>
+          <t>road121</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -797,24 +797,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>road121</t>
+          <t>road122</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>road122</t>
+          <t>road123</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>road123</t>
+          <t>road125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -848,7 +848,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>road125</t>
+          <t>road126</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -865,7 +865,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>road126</t>
+          <t>road128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -882,7 +882,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>road128</t>
+          <t>road132</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -899,7 +899,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>road132</t>
+          <t>road133</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -909,14 +909,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>road133</t>
+          <t>road134</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>road134</t>
+          <t>road135</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -950,7 +950,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>road135</t>
+          <t>road137</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -967,7 +967,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>road137</t>
+          <t>road138</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>road138</t>
+          <t>road139</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>road139</t>
+          <t>road140</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>road140</t>
+          <t>road141</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1028,14 +1028,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>road141</t>
+          <t>road142</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>road142</t>
+          <t>road143</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1069,7 +1069,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>road143</t>
+          <t>road144</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>road144</t>
+          <t>road145</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1103,7 +1103,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>road145</t>
+          <t>road146</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>road146</t>
+          <t>road147</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1137,7 +1137,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>road147</t>
+          <t>road148</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>road148</t>
+          <t>road149</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>road149</t>
+          <t>road150</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>road150</t>
+          <t>road151</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1205,7 +1205,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>road151</t>
+          <t>road152</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>road152</t>
+          <t>road153</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1239,7 +1239,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>road153</t>
+          <t>road155</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1256,12 +1256,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>road155</t>
+          <t>road157</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1273,12 +1273,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>road157</t>
+          <t>road158</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1290,24 +1290,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>road158</t>
+          <t>road159</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>road159</t>
+          <t>road161</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>road161</t>
+          <t>road162</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>road162</t>
+          <t>road163</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1351,31 +1351,31 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>road163</t>
+          <t>road165</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>road165</t>
+          <t>road166</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1385,14 +1385,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>road166</t>
+          <t>road168</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1409,46 +1409,46 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>road168</t>
+          <t>road169</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>road169</t>
+          <t>road171</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>road171</t>
+          <t>road172</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>road172</t>
+          <t>road173</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1470,14 +1470,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>road173</t>
+          <t>road174</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1494,7 +1494,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>road174</t>
+          <t>road175</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1511,7 +1511,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>road175</t>
+          <t>road177</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1528,24 +1528,24 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>road177</t>
+          <t>road178</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>road178</t>
+          <t>road180</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1562,24 +1562,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>road180</t>
+          <t>road181</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>road181</t>
+          <t>road182</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>road182</t>
+          <t>road184</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1606,65 +1606,65 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>road184</t>
+          <t>road186</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>road185</t>
+          <t>road187</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>road186</t>
+          <t>road188</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>road187</t>
+          <t>road190</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1681,7 +1681,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>road188</t>
+          <t>road191</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1698,24 +1698,24 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>road190</t>
+          <t>road192</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>road191</t>
+          <t>road196</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>road192</t>
+          <t>road197</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>road196</t>
+          <t>road198</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1759,14 +1759,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>road197</t>
+          <t>road199</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1783,7 +1783,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>road198</t>
+          <t>road201</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>road199</t>
+          <t>road202</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1817,7 +1817,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>road201</t>
+          <t>road203</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1827,53 +1827,53 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>road202</t>
+          <t>road204</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>road203</t>
+          <t>road205</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>road204</t>
+          <t>road206</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1885,24 +1885,24 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>road205</t>
+          <t>road208</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>road206</t>
+          <t>road209</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>road208</t>
+          <t>road210</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>road209</t>
+          <t>road211</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1953,7 +1953,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>road210</t>
+          <t>road215</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>road211</t>
+          <t>road216</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1980,14 +1980,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>road212</t>
+          <t>road217</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>road213</t>
+          <t>road218</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2021,7 +2021,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>road214</t>
+          <t>road220</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2038,7 +2038,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>road215</t>
+          <t>road221</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2055,7 +2055,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>road216</t>
+          <t>road222</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2072,7 +2072,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>road217</t>
+          <t>road223</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2089,7 +2089,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>road218</t>
+          <t>road224</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>road219</t>
+          <t>road225</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>road220</t>
+          <t>road239</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>road221</t>
+          <t>road246</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>road222</t>
+          <t>road250</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2167,14 +2167,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>road223</t>
+          <t>road251</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2191,7 +2191,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>road224</t>
+          <t>road252</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>road225</t>
+          <t>road253</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2218,14 +2218,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>road239</t>
+          <t>road254</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2235,14 +2235,14 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>road246</t>
+          <t>road255</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>road249</t>
+          <t>road256</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>road250</t>
+          <t>road257</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2293,7 +2293,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>road251</t>
+          <t>road258</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>road252</t>
+          <t>road259</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2320,14 +2320,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>road253</t>
+          <t>road260</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>road254</t>
+          <t>road261</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2354,14 +2354,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>road255</t>
+          <t>road262</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2371,14 +2371,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>road256</t>
+          <t>road263</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2388,14 +2388,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>road257</t>
+          <t>road264</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2405,14 +2405,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>road258</t>
+          <t>road265</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2422,14 +2422,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>road259</t>
+          <t>road266</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2446,7 +2446,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>road260</t>
+          <t>road267</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>road261</t>
+          <t>road268</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>road262</t>
+          <t>road269</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2490,14 +2490,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>road263</t>
+          <t>road271</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2514,7 +2514,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>road264</t>
+          <t>road273</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2531,7 +2531,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>road265</t>
+          <t>road274</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>road266</t>
+          <t>road276</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>road267</t>
+          <t>road277</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2582,7 +2582,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>road268</t>
+          <t>road279</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2592,14 +2592,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>road269</t>
+          <t>road280</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2609,14 +2609,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>road271</t>
+          <t>road283</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>road273</t>
+          <t>road284</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>road274</t>
+          <t>road286</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2667,7 +2667,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>road276</t>
+          <t>road288</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>road277</t>
+          <t>road290</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2701,7 +2701,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>road279</t>
+          <t>road291</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>road280</t>
+          <t>road293</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2735,7 +2735,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>road283</t>
+          <t>road294</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>road284</t>
+          <t>road295</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2762,14 +2762,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>road286</t>
+          <t>road296</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2786,7 +2786,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>road288</t>
+          <t>road297</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2803,7 +2803,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>road290</t>
+          <t>road298</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2813,14 +2813,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>road291</t>
+          <t>road299</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>road293</t>
+          <t>road301</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2847,19 +2847,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>road294</t>
+          <t>road303</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2871,7 +2871,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>road295</t>
+          <t>road304</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>road296</t>
+          <t>road305</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2898,31 +2898,31 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>road297</t>
+          <t>road306</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>road298</t>
+          <t>road308</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2939,7 +2939,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>road299</t>
+          <t>road310</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2949,14 +2949,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>road301</t>
+          <t>road312</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2973,24 +2973,24 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>road303</t>
+          <t>road313</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>road304</t>
+          <t>road320</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3007,7 +3007,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>road305</t>
+          <t>road322</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3017,31 +3017,31 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>road306</t>
+          <t>road324</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>road308</t>
+          <t>road326</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3058,7 +3058,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>road310</t>
+          <t>road328</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3075,7 +3075,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>road312</t>
+          <t>road329</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>road313</t>
+          <t>road330</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>road320</t>
+          <t>road332</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3126,7 +3126,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>road322</t>
+          <t>road333</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3136,31 +3136,31 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>road324</t>
+          <t>road334</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>road326</t>
+          <t>road335</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>road328</t>
+          <t>road336</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3187,14 +3187,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>road329</t>
+          <t>road337</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3211,7 +3211,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>road330</t>
+          <t>road338</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3221,31 +3221,31 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>road332</t>
+          <t>road339</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>road333</t>
+          <t>road340</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>road334</t>
+          <t>road342</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>road335</t>
+          <t>road343</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3296,7 +3296,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>road336</t>
+          <t>road344</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3306,14 +3306,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>road337</t>
+          <t>road345</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3330,7 +3330,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>road338</t>
+          <t>road346</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3340,31 +3340,31 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>road339</t>
+          <t>road348</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>road340</t>
+          <t>road349</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>road342</t>
+          <t>road350</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3398,7 +3398,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>road343</t>
+          <t>road351</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3415,7 +3415,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>road344</t>
+          <t>road352</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3425,14 +3425,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>road345</t>
+          <t>road353</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3442,31 +3442,31 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>road346</t>
+          <t>road354</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>road348</t>
+          <t>road355</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3483,24 +3483,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>road349</t>
+          <t>road356</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>road350</t>
+          <t>road357</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3510,14 +3510,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>road351</t>
+          <t>road359</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3534,7 +3534,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>road352</t>
+          <t>road360</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>road353</t>
+          <t>road362</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3561,31 +3561,31 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>road354</t>
+          <t>road363</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>road355</t>
+          <t>road364</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3595,31 +3595,31 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>road356</t>
+          <t>road365</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>road357</t>
+          <t>road366</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>road359</t>
+          <t>road368</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3646,14 +3646,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>road360</t>
+          <t>road369</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>road362</t>
+          <t>road370</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3687,7 +3687,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>road363</t>
+          <t>road371</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3697,14 +3697,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>road364</t>
+          <t>road372</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3721,7 +3721,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>road365</t>
+          <t>road373</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3738,24 +3738,24 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>road366</t>
+          <t>road374</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>road368</t>
+          <t>road375</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>road369</t>
+          <t>road376</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>road370</t>
+          <t>road377</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3799,14 +3799,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>road371</t>
+          <t>road378</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3816,14 +3816,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>road372</t>
+          <t>road379</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3833,14 +3833,14 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>road373</t>
+          <t>road380</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3850,31 +3850,31 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>road374</t>
+          <t>road381</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>road375</t>
+          <t>road382</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3884,14 +3884,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>road376</t>
+          <t>road383</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3901,14 +3901,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>road377</t>
+          <t>road384</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3925,7 +3925,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>road378</t>
+          <t>road385</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3935,14 +3935,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>road379</t>
+          <t>road386</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3952,14 +3952,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>road380</t>
+          <t>road387</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3969,14 +3969,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>road381</t>
+          <t>road388</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3986,14 +3986,14 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>road382</t>
+          <t>road389</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4010,7 +4010,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>road383</t>
+          <t>road390</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4020,14 +4020,14 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>road384</t>
+          <t>road391</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4037,14 +4037,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>road385</t>
+          <t>road392</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4054,14 +4054,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>road386</t>
+          <t>road393</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4078,7 +4078,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>road387</t>
+          <t>road394</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4095,7 +4095,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>road388</t>
+          <t>road395</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>road389</t>
+          <t>road396</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4129,7 +4129,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>road390</t>
+          <t>road397</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>road391</t>
+          <t>road398</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4156,14 +4156,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>road392</t>
+          <t>road399</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4180,7 +4180,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>road393</t>
+          <t>road400</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>road394</t>
+          <t>road401</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4207,14 +4207,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>road395</t>
+          <t>road402</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>road396</t>
+          <t>road403</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>road397</t>
+          <t>road404</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4265,7 +4265,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>road398</t>
+          <t>road405</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4282,7 +4282,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>road399</t>
+          <t>road406</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4292,14 +4292,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>road400</t>
+          <t>road407</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4309,14 +4309,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>road401</t>
+          <t>road408</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>road402</t>
+          <t>road409</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>road403</t>
+          <t>road410</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4360,14 +4360,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>road404</t>
+          <t>road411</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>road405</t>
+          <t>road412</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4394,14 +4394,14 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>road406</t>
+          <t>road413</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4411,14 +4411,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>road407</t>
+          <t>road414</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4428,14 +4428,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>road408</t>
+          <t>road415</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>road409</t>
+          <t>road416</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4462,14 +4462,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>road410</t>
+          <t>road417</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4486,7 +4486,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>road411</t>
+          <t>road418</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4503,7 +4503,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>road412</t>
+          <t>road419</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4520,7 +4520,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>road413</t>
+          <t>road420</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4537,7 +4537,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>road414</t>
+          <t>road421</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4554,7 +4554,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>road415</t>
+          <t>road422</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4564,14 +4564,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>road416</t>
+          <t>road423</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>road417</t>
+          <t>road424</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4598,14 +4598,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>road418</t>
+          <t>road425</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4622,7 +4622,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>road419</t>
+          <t>road426</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4639,7 +4639,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>road420</t>
+          <t>road427</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>road421</t>
+          <t>road428</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4673,7 +4673,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>road422</t>
+          <t>road429</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>road423</t>
+          <t>road430</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4707,7 +4707,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>road424</t>
+          <t>road431</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>road425</t>
+          <t>road432</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4734,14 +4734,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>road426</t>
+          <t>road433</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>road427</t>
+          <t>road434</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>road428</t>
+          <t>road435</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4792,7 +4792,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>road429</t>
+          <t>road436</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4809,7 +4809,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>road430</t>
+          <t>road437</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -4826,7 +4826,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>road431</t>
+          <t>road438</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4843,7 +4843,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>road432</t>
+          <t>road439</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4853,14 +4853,14 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>road433</t>
+          <t>road440</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4877,7 +4877,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>road434</t>
+          <t>road441</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>road435</t>
+          <t>road442</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>road436</t>
+          <t>road443</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4928,7 +4928,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>road437</t>
+          <t>road444</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4945,7 +4945,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>road438</t>
+          <t>road445</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>road439</t>
+          <t>road446</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4979,7 +4979,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>road440</t>
+          <t>road447</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>road441</t>
+          <t>road448</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5013,7 +5013,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>road442</t>
+          <t>road449</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5030,7 +5030,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>road443</t>
+          <t>road450</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5047,7 +5047,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>road444</t>
+          <t>road451</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5064,7 +5064,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>road445</t>
+          <t>road452</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5081,7 +5081,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>road446</t>
+          <t>road453</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5091,14 +5091,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>road447</t>
+          <t>road454</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5108,14 +5108,14 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>road448</t>
+          <t>road455</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5132,7 +5132,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>road449</t>
+          <t>road456</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5149,7 +5149,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>road450</t>
+          <t>road457</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5166,7 +5166,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>road451</t>
+          <t>road458</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5183,7 +5183,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>road452</t>
+          <t>road467</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5193,14 +5193,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>road453</t>
+          <t>road468</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5210,14 +5210,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>road454</t>
+          <t>road469</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5227,14 +5227,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>road455</t>
+          <t>road470</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>road456</t>
+          <t>road471</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>road457</t>
+          <t>road472</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -5285,7 +5285,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>road458</t>
+          <t>road473</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5302,7 +5302,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>road467</t>
+          <t>road474</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -5312,14 +5312,14 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>road468</t>
+          <t>road475</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5336,7 +5336,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>road469</t>
+          <t>road476</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5353,7 +5353,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>road470</t>
+          <t>road477</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5370,7 +5370,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>road471</t>
+          <t>road478</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>road472</t>
+          <t>road479</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>road473</t>
+          <t>road480</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>road474</t>
+          <t>road483</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -5438,7 +5438,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>road475</t>
+          <t>road484</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5455,7 +5455,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>road476</t>
+          <t>road485</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -5472,7 +5472,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>road477</t>
+          <t>road486</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5482,14 +5482,14 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>road478</t>
+          <t>road487</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>road479</t>
+          <t>road488</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5516,14 +5516,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>road480</t>
+          <t>road489</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5540,7 +5540,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>road483</t>
+          <t>road490</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -5557,7 +5557,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>road484</t>
+          <t>road491</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5574,7 +5574,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>road485</t>
+          <t>road492</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -5591,7 +5591,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>road486</t>
+          <t>road493</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5601,14 +5601,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>road487</t>
+          <t>road494</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5625,7 +5625,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>road488</t>
+          <t>road496</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5635,14 +5635,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>road489</t>
+          <t>road497</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5652,14 +5652,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>road490</t>
+          <t>road498</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>road491</t>
+          <t>road499</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5693,7 +5693,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>road492</t>
+          <t>road500</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5710,7 +5710,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>road493</t>
+          <t>road501</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -5727,7 +5727,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>road494</t>
+          <t>road502</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5744,7 +5744,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>road496</t>
+          <t>road503</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5754,14 +5754,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>road497</t>
+          <t>road504</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>road498</t>
+          <t>road505</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5788,14 +5788,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>road499</t>
+          <t>road506</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>road500</t>
+          <t>road507</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5829,7 +5829,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>road501</t>
+          <t>road508</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5846,7 +5846,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>road502</t>
+          <t>road509</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5863,7 +5863,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>road503</t>
+          <t>road510</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5880,7 +5880,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>road504</t>
+          <t>road511</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5897,7 +5897,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>road505</t>
+          <t>road512</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5907,14 +5907,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>road506</t>
+          <t>road513</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5931,7 +5931,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>road507</t>
+          <t>road514</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5948,7 +5948,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>road508</t>
+          <t>road515</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5965,7 +5965,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>road509</t>
+          <t>road516</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5982,7 +5982,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>road510</t>
+          <t>road517</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5999,7 +5999,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>road511</t>
+          <t>road518</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>road512</t>
+          <t>road519</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6026,31 +6026,31 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>road513</t>
+          <t>road52</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>road514</t>
+          <t>road520</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6067,7 +6067,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>road515</t>
+          <t>road521</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6084,7 +6084,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>road516</t>
+          <t>road522</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -6101,7 +6101,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>road517</t>
+          <t>road523</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6118,7 +6118,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>road518</t>
+          <t>road524</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -6128,14 +6128,14 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>road519</t>
+          <t>road525</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -6152,24 +6152,24 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>road52</t>
+          <t>road526</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>road520</t>
+          <t>road527</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -6186,7 +6186,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>road521</t>
+          <t>road529</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6203,12 +6203,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>road522</t>
+          <t>road53</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>road523</t>
+          <t>road535</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6237,7 +6237,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>road524</t>
+          <t>road537</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6247,14 +6247,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>road525</t>
+          <t>road538</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6264,14 +6264,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>road526</t>
+          <t>road539</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6281,19 +6281,19 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>road527</t>
+          <t>road54</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6305,7 +6305,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>road529</t>
+          <t>road540</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6315,48 +6315,48 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>road53</t>
+          <t>road541</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>road535</t>
+          <t>road55</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>road537</t>
+          <t>road550</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6366,14 +6366,14 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>road538</t>
+          <t>road551</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6390,7 +6390,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>road539</t>
+          <t>road552</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6407,24 +6407,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>road54</t>
+          <t>road553</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>road540</t>
+          <t>road555</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6434,14 +6434,14 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>road541</t>
+          <t>road556</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -6451,31 +6451,31 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>road55</t>
+          <t>road557</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>road550</t>
+          <t>road558</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -6485,31 +6485,31 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>road551</t>
+          <t>road56</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>road552</t>
+          <t>road565</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6519,14 +6519,14 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>road553</t>
+          <t>road566</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6536,14 +6536,14 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>road555</t>
+          <t>road567</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -6560,7 +6560,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>road556</t>
+          <t>road568</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6577,7 +6577,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>road557</t>
+          <t>road569</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6594,12 +6594,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>road558</t>
+          <t>road57</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6611,24 +6611,24 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>road56</t>
+          <t>road570</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>road565</t>
+          <t>road571</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -6645,29 +6645,29 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>road566</t>
+          <t>road579</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>road567</t>
+          <t>road58</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -6679,24 +6679,24 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>road568</t>
+          <t>road581</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>road569</t>
+          <t>road584</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -6706,19 +6706,19 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>road57</t>
+          <t>road585</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6730,7 +6730,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>road570</t>
+          <t>road586</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6740,14 +6740,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>road571</t>
+          <t>road587</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6757,65 +6757,65 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>road579</t>
+          <t>road588</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>road58</t>
+          <t>road589</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>road581</t>
+          <t>road59</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>road584</t>
+          <t>road590</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6825,14 +6825,14 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>road585</t>
+          <t>road591</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6849,7 +6849,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>road586</t>
+          <t>road592</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6859,14 +6859,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>road587</t>
+          <t>road593</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6876,14 +6876,14 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>road588</t>
+          <t>road594</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6893,14 +6893,14 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>road589</t>
+          <t>road595</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6917,12 +6917,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>road59</t>
+          <t>road599</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6934,12 +6934,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>road590</t>
+          <t>road60</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6951,7 +6951,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>road591</t>
+          <t>road600</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6961,14 +6961,14 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>road592</t>
+          <t>road601</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6978,14 +6978,14 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>road593</t>
+          <t>road602</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6995,14 +6995,14 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>road594</t>
+          <t>road603</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7012,14 +7012,14 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>road595</t>
+          <t>road604</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -7029,14 +7029,14 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>road599</t>
+          <t>road605</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7046,19 +7046,19 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>road60</t>
+          <t>road606</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7070,7 +7070,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>road600</t>
+          <t>road607</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7080,31 +7080,31 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>road601</t>
+          <t>road61</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>road602</t>
+          <t>road610</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -7114,14 +7114,14 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>road603</t>
+          <t>road611</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7131,14 +7131,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>road604</t>
+          <t>road612</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7148,14 +7148,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>road605</t>
+          <t>road613</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7165,14 +7165,14 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>road606</t>
+          <t>road614</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7189,7 +7189,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>road607</t>
+          <t>road618</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7199,48 +7199,48 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>road61</t>
+          <t>road619</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>road610</t>
+          <t>road62</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>road611</t>
+          <t>road620</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -7250,14 +7250,14 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>road612</t>
+          <t>road621</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -7274,7 +7274,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>road613</t>
+          <t>road622</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -7284,14 +7284,14 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>road614</t>
+          <t>road623</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>road618</t>
+          <t>road624</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -7318,14 +7318,14 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>road619</t>
+          <t>road625</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -7335,31 +7335,31 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>road62</t>
+          <t>road626</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>road620</t>
+          <t>road627</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7369,14 +7369,14 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>road621</t>
+          <t>road628</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7386,14 +7386,14 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>road622</t>
+          <t>road629</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -7403,133 +7403,133 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>road623</t>
+          <t>road63</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>road624</t>
+          <t>road630</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>road625</t>
+          <t>road631</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>road626</t>
+          <t>road632</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>road627</t>
+          <t>road633</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>road628</t>
+          <t>road634</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>road629</t>
+          <t>road635</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>road63</t>
+          <t>road636</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7546,7 +7546,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>road630</t>
+          <t>road64</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -7556,138 +7556,138 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>road631</t>
+          <t>road641</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>road632</t>
+          <t>road642</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>road633</t>
+          <t>road643</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>road634</t>
+          <t>road644</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>road635</t>
+          <t>road645</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>road636</t>
+          <t>road646</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>road637</t>
+          <t>road648</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>road64</t>
+          <t>road649</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7699,12 +7699,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>road641</t>
+          <t>road65</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7716,7 +7716,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>road642</t>
+          <t>road650</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -7733,7 +7733,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>road643</t>
+          <t>road651</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -7750,12 +7750,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>road644</t>
+          <t>road66</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7767,7 +7767,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>road645</t>
+          <t>road660</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -7784,7 +7784,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>road646</t>
+          <t>road661</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7801,7 +7801,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>road648</t>
+          <t>road662</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -7818,7 +7818,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>road649</t>
+          <t>road663</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -7835,12 +7835,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>road65</t>
+          <t>road664</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7852,7 +7852,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>road650</t>
+          <t>road665</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7869,7 +7869,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>road651</t>
+          <t>road666</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7886,29 +7886,29 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>road66</t>
+          <t>road667</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>road660</t>
+          <t>road67</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7920,7 +7920,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>road661</t>
+          <t>road670</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7937,7 +7937,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>road662</t>
+          <t>road672</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7947,48 +7947,48 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>road663</t>
+          <t>road673</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>road664</t>
+          <t>road676</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>road665</t>
+          <t>road677</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -8005,7 +8005,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>road666</t>
+          <t>road678</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -8022,7 +8022,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>road667</t>
+          <t>road679</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -8039,7 +8039,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>road67</t>
+          <t>road68</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -8056,7 +8056,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>road670</t>
+          <t>road680</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8066,14 +8066,14 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>road672</t>
+          <t>road682</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8083,48 +8083,48 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>road673</t>
+          <t>road683</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>road676</t>
+          <t>road684</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>road677</t>
+          <t>road685</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -8141,7 +8141,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>road678</t>
+          <t>road686</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8158,24 +8158,24 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>road679</t>
+          <t>road69</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>road68</t>
+          <t>road70</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -8185,31 +8185,31 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>road680</t>
+          <t>road71</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>road682</t>
+          <t>road719</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -8219,31 +8219,31 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>road683</t>
+          <t>road72</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>road684</t>
+          <t>road720</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -8260,7 +8260,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>road685</t>
+          <t>road721</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -8277,7 +8277,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>road686</t>
+          <t>road722</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8294,12 +8294,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>road69</t>
+          <t>road723</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8311,29 +8311,29 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>road70</t>
+          <t>road724</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>road71</t>
+          <t>road725</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -8345,7 +8345,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>road719</t>
+          <t>road726</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8355,14 +8355,14 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>road72</t>
+          <t>road74</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -8372,19 +8372,19 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>road720</t>
+          <t>road75</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8396,7 +8396,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>road721</t>
+          <t>road755</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8406,14 +8406,14 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>road722</t>
+          <t>road756</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -8423,14 +8423,14 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>road723</t>
+          <t>road757</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -8447,7 +8447,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>road724</t>
+          <t>road758</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>road725</t>
+          <t>road759</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -8481,12 +8481,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>road726</t>
+          <t>road76</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -8498,41 +8498,41 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>road74</t>
+          <t>road760</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>road75</t>
+          <t>road761</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>road755</t>
+          <t>road762</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -8542,14 +8542,14 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>road756</t>
+          <t>road763</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -8566,7 +8566,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>road757</t>
+          <t>road764</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -8583,7 +8583,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>road758</t>
+          <t>road765</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -8593,14 +8593,14 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>road759</t>
+          <t>road766</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -8617,12 +8617,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>road76</t>
+          <t>road767</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8634,7 +8634,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>road760</t>
+          <t>road768</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -8644,14 +8644,14 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>road761</t>
+          <t>road769</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -8661,31 +8661,31 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>road762</t>
+          <t>road77</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>road763</t>
+          <t>road770</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -8695,14 +8695,14 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>road764</t>
+          <t>road771</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -8719,7 +8719,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>road765</t>
+          <t>road772</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -8736,7 +8736,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>road766</t>
+          <t>road773</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -8746,14 +8746,14 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>road767</t>
+          <t>road774</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -8763,14 +8763,14 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>road768</t>
+          <t>road775</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -8780,14 +8780,14 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>road769</t>
+          <t>road776</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -8804,12 +8804,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>road77</t>
+          <t>road777</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -8821,7 +8821,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>road770</t>
+          <t>road778</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>road771</t>
+          <t>road779</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -8855,12 +8855,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>road772</t>
+          <t>road78</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8872,7 +8872,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>road773</t>
+          <t>road783</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -8882,14 +8882,14 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>road774</t>
+          <t>road786</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -8899,14 +8899,14 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>road775</t>
+          <t>road787</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -8923,7 +8923,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>road776</t>
+          <t>road788</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -8940,7 +8940,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>road777</t>
+          <t>road789</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8957,12 +8957,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>road778</t>
+          <t>road79</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8974,7 +8974,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>road779</t>
+          <t>road795</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -8991,24 +8991,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>road78</t>
+          <t>road796</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>road783</t>
+          <t>road797</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -9018,14 +9018,14 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>road786</t>
+          <t>road798</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9035,14 +9035,14 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>road787</t>
+          <t>road799</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -9059,12 +9059,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>road788</t>
+          <t>road80</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9076,7 +9076,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>road789</t>
+          <t>road800</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9093,12 +9093,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>road79</t>
+          <t>road801</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9110,7 +9110,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>road795</t>
+          <t>road802</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -9120,14 +9120,14 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>road796</t>
+          <t>road803</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>road797</t>
+          <t>road804</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -9154,14 +9154,14 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>road798</t>
+          <t>road805</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -9178,7 +9178,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>road799</t>
+          <t>road806</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -9195,24 +9195,24 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>road80</t>
+          <t>road807</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>road800</t>
+          <t>road808</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -9229,7 +9229,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>road801</t>
+          <t>road809</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -9246,24 +9246,24 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>road802</t>
+          <t>road81</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>road803</t>
+          <t>road810</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -9280,7 +9280,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>road804</t>
+          <t>road811</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -9297,7 +9297,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>road805</t>
+          <t>road812</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -9314,7 +9314,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>road806</t>
+          <t>road813</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -9324,14 +9324,14 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>road807</t>
+          <t>road814</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -9341,14 +9341,14 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>road808</t>
+          <t>road815</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -9365,7 +9365,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>road809</t>
+          <t>road816</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -9382,12 +9382,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>road81</t>
+          <t>road817</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9399,7 +9399,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>road810</t>
+          <t>road818</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -9416,24 +9416,24 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>road811</t>
+          <t>road82</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>road812</t>
+          <t>road827</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -9450,7 +9450,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>road813</t>
+          <t>road828</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -9460,14 +9460,14 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>road814</t>
+          <t>road829</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -9484,24 +9484,24 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>road815</t>
+          <t>road83</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>road816</t>
+          <t>road830</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -9518,7 +9518,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>road817</t>
+          <t>road831</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -9535,7 +9535,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>road818</t>
+          <t>road832</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -9552,12 +9552,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>road82</t>
+          <t>road833</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -9569,7 +9569,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>road827</t>
+          <t>road834</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -9579,14 +9579,14 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>road828</t>
+          <t>road835</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -9603,7 +9603,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>road829</t>
+          <t>road836</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -9620,41 +9620,41 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>road83</t>
+          <t>road837</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>road830</t>
+          <t>road84</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>road831</t>
+          <t>road844</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -9671,7 +9671,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>road832</t>
+          <t>road848</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -9688,7 +9688,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>road833</t>
+          <t>road849</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -9698,31 +9698,31 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>road834</t>
+          <t>road85</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>road835</t>
+          <t>road850</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -9732,14 +9732,14 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>road836</t>
+          <t>road851</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -9749,14 +9749,14 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>road837</t>
+          <t>road852</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -9766,31 +9766,31 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>road84</t>
+          <t>road853</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>road844</t>
+          <t>road854</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -9800,14 +9800,14 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>road848</t>
+          <t>road855</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -9817,14 +9817,14 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>road849</t>
+          <t>road856</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -9834,19 +9834,19 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>road85</t>
+          <t>road857</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
@@ -9858,7 +9858,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>road850</t>
+          <t>road858</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -9868,14 +9868,14 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>road851</t>
+          <t>road859</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -9885,31 +9885,31 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>road852</t>
+          <t>road86</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>road853</t>
+          <t>road860</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -9926,7 +9926,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>road854</t>
+          <t>road861</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -9936,14 +9936,14 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>road855</t>
+          <t>road862</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -9953,14 +9953,14 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>road856</t>
+          <t>road866</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -9977,7 +9977,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>road857</t>
+          <t>road867</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -9994,7 +9994,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>road858</t>
+          <t>road868</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -10004,14 +10004,14 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>road859</t>
+          <t>road869</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -10021,14 +10021,14 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>road86</t>
+          <t>road87</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -10038,14 +10038,14 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>road860</t>
+          <t>road870</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -10055,14 +10055,14 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>road861</t>
+          <t>road871</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -10072,19 +10072,19 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>road862</t>
+          <t>road876</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10096,75 +10096,75 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>road866</t>
+          <t>road88</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>road867</t>
+          <t>road89</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>road868</t>
+          <t>road90</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>road869</t>
+          <t>road91</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>road87</t>
+          <t>road92</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -10174,19 +10174,19 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>road870</t>
+          <t>road93</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10198,24 +10198,24 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>road871</t>
+          <t>road94</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>road876</t>
+          <t>road95</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -10232,7 +10232,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>road88</t>
+          <t>road96</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -10242,14 +10242,14 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>road89</t>
+          <t>road97</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -10259,14 +10259,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>road90</t>
+          <t>road98</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -10276,14 +10276,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>road91</t>
+          <t>road99</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -10292,142 +10292,6 @@
         </is>
       </c>
       <c r="C581" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>road92</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>road93</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>road94</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>road95</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>road96</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>road97</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>road98</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>road99</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
         <is>
           <t>speedlimit</t>
         </is>

--- a/RoadSigns.xlsx
+++ b/RoadSigns.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C581"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
@@ -1545,12 +1545,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>road180</t>
+          <t>road198</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1562,7 +1562,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>road181</t>
+          <t>road199</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>road182</t>
+          <t>road201</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>road184</t>
+          <t>road202</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1613,24 +1613,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>road186</t>
+          <t>road203</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>road187</t>
+          <t>road204</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1647,41 +1647,41 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>road188</t>
+          <t>road205</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>road190</t>
+          <t>road206</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>road191</t>
+          <t>road208</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>road192</t>
+          <t>road209</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1715,7 +1715,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>road196</t>
+          <t>road210</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>road197</t>
+          <t>road211</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1749,7 +1749,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>road198</t>
+          <t>road215</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1759,14 +1759,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>road199</t>
+          <t>road216</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1776,14 +1776,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>road201</t>
+          <t>road217</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>road202</t>
+          <t>road218</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1810,14 +1810,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>road203</t>
+          <t>road220</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1827,48 +1827,48 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>road204</t>
+          <t>road221</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>road205</t>
+          <t>road222</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>road206</t>
+          <t>road223</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1878,14 +1878,14 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>road208</t>
+          <t>road224</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1895,14 +1895,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>road209</t>
+          <t>road225</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>road210</t>
+          <t>road239</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1929,14 +1929,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>road211</t>
+          <t>road246</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1946,14 +1946,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>road215</t>
+          <t>road250</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>road216</t>
+          <t>road251</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1987,7 +1987,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>road217</t>
+          <t>road252</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>road218</t>
+          <t>road253</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>road220</t>
+          <t>road295</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2031,14 +2031,14 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>road221</t>
+          <t>road296</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2048,14 +2048,14 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>road222</t>
+          <t>road297</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2065,14 +2065,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>road223</t>
+          <t>road298</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2082,14 +2082,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>road224</t>
+          <t>road299</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2106,7 +2106,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>road225</t>
+          <t>road301</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2123,24 +2123,24 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>road239</t>
+          <t>road303</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>road246</t>
+          <t>road304</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2150,14 +2150,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>road250</t>
+          <t>road305</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>road251</t>
+          <t>road340</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2184,14 +2184,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>road252</t>
+          <t>road342</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>road253</t>
+          <t>road343</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2218,14 +2218,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>road254</t>
+          <t>road344</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2242,7 +2242,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>road255</t>
+          <t>road345</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2259,7 +2259,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>road256</t>
+          <t>road346</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>road257</t>
+          <t>road348</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2286,14 +2286,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>road258</t>
+          <t>road349</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>road259</t>
+          <t>road350</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2327,7 +2327,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>road260</t>
+          <t>road351</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2337,14 +2337,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>road261</t>
+          <t>road352</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2354,14 +2354,14 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>road262</t>
+          <t>road353</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2378,24 +2378,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>road263</t>
+          <t>road354</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>road264</t>
+          <t>road355</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2412,24 +2412,24 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>road265</t>
+          <t>road356</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>road266</t>
+          <t>road357</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>road267</t>
+          <t>road359</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>road268</t>
+          <t>road360</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>road269</t>
+          <t>road362</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2490,14 +2490,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>road271</t>
+          <t>road363</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2514,7 +2514,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>road273</t>
+          <t>road364</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2524,14 +2524,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>road274</t>
+          <t>road365</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>road276</t>
+          <t>road366</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>road277</t>
+          <t>road368</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2575,14 +2575,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>road279</t>
+          <t>road369</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2599,7 +2599,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>road280</t>
+          <t>road370</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>road283</t>
+          <t>road371</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2626,14 +2626,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>road284</t>
+          <t>road372</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2643,14 +2643,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>road286</t>
+          <t>road373</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2660,31 +2660,31 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>road288</t>
+          <t>road374</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>road290</t>
+          <t>road375</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2701,7 +2701,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>road291</t>
+          <t>road376</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>road293</t>
+          <t>road377</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2728,14 +2728,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>road294</t>
+          <t>road378</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>road295</t>
+          <t>road379</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2762,14 +2762,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>road296</t>
+          <t>road380</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2786,7 +2786,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>road297</t>
+          <t>road381</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2796,14 +2796,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>road298</t>
+          <t>road382</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>road299</t>
+          <t>road383</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>road301</t>
+          <t>road393</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2854,12 +2854,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>road303</t>
+          <t>road394</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2871,7 +2871,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>road304</t>
+          <t>road395</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2888,7 +2888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>road305</t>
+          <t>road396</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2898,31 +2898,31 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>road306</t>
+          <t>road397</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>road308</t>
+          <t>road398</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>road310</t>
+          <t>road399</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2949,14 +2949,14 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>road312</t>
+          <t>road400</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2966,14 +2966,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>road313</t>
+          <t>road401</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2983,14 +2983,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>road320</t>
+          <t>road402</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3007,7 +3007,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>road322</t>
+          <t>road403</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3024,24 +3024,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>road324</t>
+          <t>road404</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>road326</t>
+          <t>road405</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3051,14 +3051,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>road328</t>
+          <t>road406</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3068,14 +3068,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>road329</t>
+          <t>road407</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>road330</t>
+          <t>road408</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>road332</t>
+          <t>road409</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3119,14 +3119,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>road333</t>
+          <t>road410</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>road334</t>
+          <t>road411</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3153,14 +3153,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>road335</t>
+          <t>road412</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>road336</t>
+          <t>road413</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3187,14 +3187,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>road337</t>
+          <t>road414</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3211,7 +3211,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>road338</t>
+          <t>road415</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3228,24 +3228,24 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>road339</t>
+          <t>road416</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>road340</t>
+          <t>road417</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>road342</t>
+          <t>road418</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3279,7 +3279,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>road343</t>
+          <t>road419</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3289,14 +3289,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>road344</t>
+          <t>road420</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3313,7 +3313,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>road345</t>
+          <t>road421</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3330,7 +3330,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>road346</t>
+          <t>road422</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3347,7 +3347,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>road348</t>
+          <t>road423</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>road349</t>
+          <t>road424</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3381,7 +3381,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>road350</t>
+          <t>road425</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3398,7 +3398,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>road351</t>
+          <t>road426</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3408,14 +3408,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>road352</t>
+          <t>road427</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3425,14 +3425,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>road353</t>
+          <t>road428</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3442,31 +3442,31 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>road354</t>
+          <t>road429</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>road355</t>
+          <t>road430</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3483,24 +3483,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>road356</t>
+          <t>road431</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>road357</t>
+          <t>road432</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3510,14 +3510,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>road359</t>
+          <t>road433</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3527,14 +3527,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>road360</t>
+          <t>road434</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3551,7 +3551,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>road362</t>
+          <t>road435</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>road363</t>
+          <t>road436</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3585,7 +3585,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>road364</t>
+          <t>road437</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3595,14 +3595,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>road365</t>
+          <t>road438</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3612,14 +3612,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>road366</t>
+          <t>road439</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>road368</t>
+          <t>road440</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3646,14 +3646,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>road369</t>
+          <t>road441</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3670,7 +3670,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>road370</t>
+          <t>road442</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3687,7 +3687,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>road371</t>
+          <t>road443</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3697,14 +3697,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>road372</t>
+          <t>road444</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3714,14 +3714,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>road373</t>
+          <t>road445</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3731,31 +3731,31 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>road374</t>
+          <t>road446</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>road375</t>
+          <t>road447</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3765,14 +3765,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>road376</t>
+          <t>road448</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>road377</t>
+          <t>road449</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3799,14 +3799,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>road378</t>
+          <t>road450</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3816,14 +3816,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>road379</t>
+          <t>road451</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3840,7 +3840,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>road380</t>
+          <t>road452</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3857,7 +3857,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>road381</t>
+          <t>road453</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3867,14 +3867,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>road382</t>
+          <t>road454</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3884,14 +3884,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>road383</t>
+          <t>road455</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3901,14 +3901,14 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>road384</t>
+          <t>road456</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3918,14 +3918,14 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>road385</t>
+          <t>road457</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3935,14 +3935,14 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>road386</t>
+          <t>road458</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3952,14 +3952,14 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>road387</t>
+          <t>road467</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3969,14 +3969,14 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>road388</t>
+          <t>road468</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3993,7 +3993,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>road389</t>
+          <t>road469</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4010,7 +4010,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>road390</t>
+          <t>road470</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4027,7 +4027,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>road391</t>
+          <t>road471</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -4037,14 +4037,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>road392</t>
+          <t>road472</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4054,14 +4054,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>road393</t>
+          <t>road473</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4071,14 +4071,14 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>road394</t>
+          <t>road474</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4088,14 +4088,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>road395</t>
+          <t>road475</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4112,7 +4112,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>road396</t>
+          <t>road476</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4129,7 +4129,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>road397</t>
+          <t>road477</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4146,7 +4146,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>road398</t>
+          <t>road478</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -4156,14 +4156,14 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>road399</t>
+          <t>road479</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -4173,14 +4173,14 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>road400</t>
+          <t>road480</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4197,7 +4197,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>road401</t>
+          <t>road483</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4207,14 +4207,14 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>road402</t>
+          <t>road484</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4231,7 +4231,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>road403</t>
+          <t>road485</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>road404</t>
+          <t>road486</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4258,14 +4258,14 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>road405</t>
+          <t>road487</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4275,14 +4275,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>road406</t>
+          <t>road488</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4292,14 +4292,14 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>road407</t>
+          <t>road489</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -4309,14 +4309,14 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>road408</t>
+          <t>road490</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>road409</t>
+          <t>road491</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4343,14 +4343,14 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>road410</t>
+          <t>road492</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4360,14 +4360,14 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>road411</t>
+          <t>road493</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4384,7 +4384,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>road412</t>
+          <t>road494</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4401,7 +4401,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>road413</t>
+          <t>road496</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -4411,14 +4411,14 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>road414</t>
+          <t>road497</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -4428,14 +4428,14 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>road415</t>
+          <t>road498</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>road416</t>
+          <t>road499</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4469,7 +4469,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>road417</t>
+          <t>road500</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4479,14 +4479,14 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>road418</t>
+          <t>road501</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4503,7 +4503,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>road419</t>
+          <t>road502</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4520,7 +4520,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>road420</t>
+          <t>road503</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4537,7 +4537,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>road421</t>
+          <t>road504</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -4554,7 +4554,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>road422</t>
+          <t>road505</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4564,14 +4564,14 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>road423</t>
+          <t>road506</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4588,7 +4588,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>road424</t>
+          <t>road507</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4605,7 +4605,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>road425</t>
+          <t>road508</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4622,7 +4622,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>road426</t>
+          <t>road509</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4639,7 +4639,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>road427</t>
+          <t>road510</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>road428</t>
+          <t>road511</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4673,7 +4673,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>road429</t>
+          <t>road512</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>road430</t>
+          <t>road513</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -4707,7 +4707,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>road431</t>
+          <t>road514</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -4724,7 +4724,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>road432</t>
+          <t>road515</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4734,14 +4734,14 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>road433</t>
+          <t>road516</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4758,7 +4758,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>road434</t>
+          <t>road517</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4775,7 +4775,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>road435</t>
+          <t>road518</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4785,14 +4785,14 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>road436</t>
+          <t>road519</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4809,24 +4809,24 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>road437</t>
+          <t>road52</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>road438</t>
+          <t>road520</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -4843,7 +4843,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>road439</t>
+          <t>road521</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4860,7 +4860,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>road440</t>
+          <t>road522</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4877,7 +4877,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>road441</t>
+          <t>road523</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4894,7 +4894,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>road442</t>
+          <t>road524</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4911,7 +4911,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>road443</t>
+          <t>road525</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4928,7 +4928,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>road444</t>
+          <t>road526</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4945,7 +4945,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>road445</t>
+          <t>road527</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -4962,7 +4962,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>road446</t>
+          <t>road529</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4979,12 +4979,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>road447</t>
+          <t>road53</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4996,7 +4996,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>road448</t>
+          <t>road535</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -5013,7 +5013,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>road449</t>
+          <t>road537</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5023,14 +5023,14 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>road450</t>
+          <t>road538</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5040,14 +5040,14 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>road451</t>
+          <t>road539</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -5057,19 +5057,19 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>road452</t>
+          <t>road54</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5081,7 +5081,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>road453</t>
+          <t>road540</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5091,14 +5091,14 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>road454</t>
+          <t>road541</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5108,31 +5108,31 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>road455</t>
+          <t>road55</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>road456</t>
+          <t>road550</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5142,14 +5142,14 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>road457</t>
+          <t>road551</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5159,14 +5159,14 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>road458</t>
+          <t>road552</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5176,14 +5176,14 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>road467</t>
+          <t>road553</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -5193,14 +5193,14 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>road468</t>
+          <t>road555</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5217,7 +5217,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>road469</t>
+          <t>road556</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5234,7 +5234,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>road470</t>
+          <t>road557</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5251,7 +5251,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>road471</t>
+          <t>road558</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5268,24 +5268,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>road472</t>
+          <t>road56</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>road473</t>
+          <t>road565</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -5302,7 +5302,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>road474</t>
+          <t>road566</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -5319,7 +5319,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>road475</t>
+          <t>road567</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5336,7 +5336,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>road476</t>
+          <t>road568</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5353,7 +5353,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>road477</t>
+          <t>road569</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5370,12 +5370,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>road478</t>
+          <t>road57</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5387,7 +5387,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>road479</t>
+          <t>road570</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5404,7 +5404,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>road480</t>
+          <t>road571</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -5421,29 +5421,29 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>road483</t>
+          <t>road579</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>road484</t>
+          <t>road58</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5455,24 +5455,24 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>road485</t>
+          <t>road581</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>road486</t>
+          <t>road584</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5489,7 +5489,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>road487</t>
+          <t>road585</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5506,7 +5506,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>road488</t>
+          <t>road586</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5516,14 +5516,14 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>road489</t>
+          <t>road587</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5533,14 +5533,14 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>road490</t>
+          <t>road588</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -5550,14 +5550,14 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>road491</t>
+          <t>road589</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -5567,19 +5567,19 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>road492</t>
+          <t>road59</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5591,7 +5591,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>road493</t>
+          <t>road590</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>road494</t>
+          <t>road591</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5625,7 +5625,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>road496</t>
+          <t>road592</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5635,14 +5635,14 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>road497</t>
+          <t>road593</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5652,14 +5652,14 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>road498</t>
+          <t>road594</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5669,14 +5669,14 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>road499</t>
+          <t>road595</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -5686,14 +5686,14 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>road500</t>
+          <t>road599</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -5710,12 +5710,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>road501</t>
+          <t>road60</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5727,7 +5727,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>road502</t>
+          <t>road600</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -5737,14 +5737,14 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>road503</t>
+          <t>road601</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5754,14 +5754,14 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>road504</t>
+          <t>road602</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5771,14 +5771,14 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>road505</t>
+          <t>road603</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5788,14 +5788,14 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>road506</t>
+          <t>road604</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5812,7 +5812,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>road507</t>
+          <t>road605</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5822,14 +5822,14 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>road508</t>
+          <t>road606</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -5846,7 +5846,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>road509</t>
+          <t>road607</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -5863,12 +5863,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>road510</t>
+          <t>road61</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5880,7 +5880,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>road511</t>
+          <t>road610</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5890,14 +5890,14 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>road512</t>
+          <t>road611</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5907,14 +5907,14 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>road513</t>
+          <t>road612</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5924,31 +5924,31 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>crosswalk</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>road514</t>
+          <t>road62</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>road515</t>
+          <t>road624</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5965,7 +5965,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>road516</t>
+          <t>road625</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -5982,7 +5982,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>road517</t>
+          <t>road626</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5999,7 +5999,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>road518</t>
+          <t>road627</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>road519</t>
+          <t>road628</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -6033,165 +6033,165 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>road52</t>
+          <t>road629</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>road520</t>
+          <t>road63</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>road521</t>
+          <t>road630</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>road522</t>
+          <t>road631</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>road523</t>
+          <t>road632</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>road524</t>
+          <t>road633</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>road525</t>
+          <t>road634</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>road526</t>
+          <t>road635</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>road527</t>
+          <t>road636</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>road529</t>
+          <t>road64</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6203,12 +6203,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>road53</t>
+          <t>road641</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6220,7 +6220,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>road535</t>
+          <t>road642</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6237,7 +6237,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>road537</t>
+          <t>road643</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6247,14 +6247,14 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>road538</t>
+          <t>road644</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6264,14 +6264,14 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>road539</t>
+          <t>road645</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6281,19 +6281,19 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>road54</t>
+          <t>road646</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6305,7 +6305,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>road540</t>
+          <t>road648</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -6315,31 +6315,31 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>road541</t>
+          <t>road65</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>road55</t>
+          <t>road66</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6349,87 +6349,87 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>road550</t>
+          <t>road67</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>road551</t>
+          <t>road68</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>road552</t>
+          <t>road69</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>road553</t>
+          <t>road70</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>road555</t>
+          <t>road71</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6441,46 +6441,46 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>road556</t>
+          <t>road72</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>road557</t>
+          <t>road74</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>other</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>road558</t>
+          <t>road75</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6492,7 +6492,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>road56</t>
+          <t>road76</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6502,19 +6502,19 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>road565</t>
+          <t>road77</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -6526,29 +6526,29 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>road566</t>
+          <t>road78</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>road567</t>
+          <t>road79</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6560,7 +6560,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>road568</t>
+          <t>road795</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6577,12 +6577,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>road569</t>
+          <t>road80</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6594,7 +6594,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>road57</t>
+          <t>road81</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6611,46 +6611,46 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>road570</t>
+          <t>road82</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>road571</t>
+          <t>road83</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>road579</t>
+          <t>road84</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -6662,7 +6662,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>road58</t>
+          <t>road85</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6679,12 +6679,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>road581</t>
+          <t>road86</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6696,109 +6696,109 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>road584</t>
+          <t>road87</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>speedlimit</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>road585</t>
+          <t>road88</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>road586</t>
+          <t>road89</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>road587</t>
+          <t>road90</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>road588</t>
+          <t>road91</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>road589</t>
+          <t>road92</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>road59</t>
+          <t>road93</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6815,12 +6815,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>road590</t>
+          <t>road94</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6832,12 +6832,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>road591</t>
+          <t>road95</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6849,46 +6849,46 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>road592</t>
+          <t>road96</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>road593</t>
+          <t>road97</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>road594</t>
+          <t>road98</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6900,3398 +6900,15 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>road595</t>
+          <t>road99</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>speedlimit</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>road599</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>road60</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>road600</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>road601</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>road602</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>road603</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>road604</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>road605</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>road606</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>road607</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>road61</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>road610</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>road611</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>road612</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>road613</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>road614</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>road618</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>road619</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>road62</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>road620</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>road621</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>road622</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>road623</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>road624</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>road625</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>road626</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>road627</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>road628</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>road629</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>road63</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>road630</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>road631</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>road632</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>road633</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>road634</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>road635</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>road636</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>road64</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>road641</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>road642</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>road643</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>road644</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>road645</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>road646</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>road648</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>road649</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>road65</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>road650</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>road651</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>road66</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>road660</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C433" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>road661</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C434" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>road662</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>road663</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>road664</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>road665</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>road666</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>road667</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C440" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>road67</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>road670</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>road672</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C443" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>road673</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C444" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>road676</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C445" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>road677</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>road678</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C447" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>road679</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>road68</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>road680</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C450" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>road682</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>road683</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>road684</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>road685</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>road686</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>road69</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>road70</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C457" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>road71</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>road719</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>road72</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>road720</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>road721</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>road722</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>road723</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>road724</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C465" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>road725</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>road726</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>road74</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>road75</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C469" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>road755</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>road756</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>road757</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>road758</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>road759</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>road76</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>road760</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>road761</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C477" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>road762</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C478" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>road763</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C479" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>road764</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C480" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>road765</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>road766</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>road767</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C483" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>road768</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C484" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>road769</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C485" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>road77</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>road770</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>road771</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>road772</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C489" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>road773</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>road774</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>road775</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C492" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>road776</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>road777</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C494" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>road778</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>road779</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>road78</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C497" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>road783</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C498" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>road786</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C499" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>road787</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C500" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>road788</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>road789</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C502" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>road79</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C503" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>road795</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>road796</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>road797</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>road798</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C507" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>road799</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>road80</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>road800</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>road801</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>road802</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>road803</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>road804</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>road805</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>road806</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>road807</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>road808</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>road809</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>road81</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>road810</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>road811</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>road812</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>road813</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>road814</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>road815</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>road816</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>road817</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>road818</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>road82</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>road827</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>road828</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>road829</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>road83</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>road830</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>road831</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>road832</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>road833</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>road834</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>road835</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>road836</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>road837</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>road84</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>road844</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>road848</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>road849</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>road85</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>road850</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>road851</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>road852</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>road853</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>road854</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>road855</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>road856</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>road857</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>road858</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>road859</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>road86</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>road860</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>crosswalk</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>road861</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>road862</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>road866</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>road867</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>road868</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>road869</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>road87</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>road870</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>road871</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>road876</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>road88</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>road89</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>road90</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>road91</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>road92</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>road93</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>road94</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>road95</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>road96</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>road97</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>road98</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>speedlimit</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>road99</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>stop</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
         <is>
           <t>speedlimit</t>
         </is>
